--- a/tests/Типы источников/к-300_(160-175-310-315)/расчет турбин типа К.xlsx
+++ b/tests/Типы источников/к-300_(160-175-310-315)/расчет турбин типа К.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD688C-6BEE-45A2-BB56-18EC7DD9FF42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="к-300-функция" sheetId="1" r:id="rId1"/>
     <sheet name="к-160-функция" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -143,7 +144,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -166,7 +166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="ru-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -227,7 +227,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-BY"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -240,7 +240,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -369,7 +368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -392,7 +390,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-BY"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -427,7 +425,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1017841471"/>
@@ -508,7 +506,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-BY"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -537,7 +535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="867074479"/>
@@ -554,7 +552,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -562,6 +559,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -590,7 +588,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -651,7 +649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -674,7 +671,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="ru-BY"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -735,7 +732,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-BY"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -748,7 +745,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -877,7 +873,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -900,7 +895,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-BY"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -935,7 +930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1017841471"/>
@@ -1016,7 +1011,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-BY"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1045,7 +1040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-BY"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="867074479"/>
@@ -1062,7 +1057,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1070,6 +1064,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1098,7 +1093,7 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-BY"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2215,7 +2210,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BDC364-F0D0-4CA0-A350-09F254430F4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2254,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FB1934-6DC8-4E7C-A521-591C18010BA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2298,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53854E2-7513-4BAC-A570-52CF59B22BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2339,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53854E2-7513-4BAC-A570-52CF59B22BF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,10 +2624,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A16:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -2803,10 +2798,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
